--- a/content/chapters/BW2/_data/lci_rawdata_import.xlsx
+++ b/content/chapters/BW2/_data/lci_rawdata_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\treyer_k\Documents\PSI\Brightway\departdesentier\Webinar FSLCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/brightway-book/content/chapters/BW2/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB389143-6D65-4565-A8FC-32AA687150CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609D8DA7-4216-544E-BAC0-26013ED0B9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCI" sheetId="1" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>Hydrogen production, gaseous, 200 bar, from SMR natural gas</t>
   </si>
   <si>
-    <t>ev391cutoff</t>
-  </si>
-  <si>
     <t>Natural gas assumed to come from Europe. Sensitivity analysis needs to be done to evaluate the impact of another natural gas supply chain</t>
   </si>
   <si>
@@ -381,6 +378,9 @@
   </si>
   <si>
     <t>AT</t>
+  </si>
+  <si>
+    <t>ecoinvent-3.9.1-cutoff</t>
   </si>
 </sst>
 </file>
@@ -477,32 +477,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -526,7 +522,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Versioning"/>
@@ -602,9 +598,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -642,7 +638,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -748,7 +744,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -890,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -901,40 +897,39 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -942,63 +937,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="23" t="str">
+      <c r="B6" s="19" t="str">
         <f>E12</f>
         <v>GLO</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <f>D12</f>
         <v>1</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="str">
+      <c r="B8" s="19" t="str">
         <f>C12</f>
         <v>unit</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1027,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>B4</f>
         <v>Tube-trailer unit infrastructure, 4-tubes, carbon fiber</v>
@@ -1052,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1068,8 +1063,8 @@
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>91</v>
+      <c r="F13" t="s">
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -1078,12 +1073,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>110</v>
+      <c r="B14" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1094,8 +1089,8 @@
       <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>91</v>
+      <c r="F14" t="s">
+        <v>111</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -1104,16 +1099,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="9" t="str">
         <f>A25</f>
         <v>Hydrogen production, gaseous, 200 bar, from SMR natural gas</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,63 +1116,63 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="23" t="str">
+      <c r="B19" s="19" t="str">
         <f>E25</f>
         <v>RER</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <f>D25</f>
         <v>1</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="23" t="str">
+      <c r="B21" s="19" t="str">
         <f>C25</f>
         <v>megajoule</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1202,920 +1197,863 @@
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="4" t="str">
+      <c r="F25" t="str">
         <f>$B$1</f>
         <v>hydrogen_demo</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>3.7990591512969088E-2</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="4" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.1219E-11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4.4569332623023337E-12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.1219E-11</v>
-      </c>
-      <c r="E27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.6923523840371543E-2</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>3.1698357980567689E-3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11">
+        <v>-1.1513629946635143E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5">
-        <v>4.4569332623023337E-12</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6">
-        <v>3.6923523840371543E-2</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3.1698357980567689E-3</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="13">
-        <v>-1.1513629946635143E-3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="4">
         <v>4.4393999999999994E-6</v>
       </c>
       <c r="E33" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
         <v>1.3899999999999999E-7</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
         <v>3.095E-6</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="F36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="4">
         <v>9.6599999999999991E-8</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
         <v>14</v>
       </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4">
         <v>3.0199999999999999E-6</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4">
         <v>2.3300000000000001E-7</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4">
         <v>2.6029999999999999E-6</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4">
         <v>1.6910012049805864E-6</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4">
         <v>7.35751288389381E-6</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="8">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6">
         <v>7.4624263983433872E-2</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4">
         <f>'emissions from NG combustion'!C29</f>
         <v>1.7432660455784118E-10</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4">
         <f>'emissions from NG combustion'!C30</f>
         <v>2.6148990683676173E-8</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>43</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4">
         <f>'emissions from NG combustion'!C31</f>
         <v>6.9732297975564331E-8</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="4">
         <f>'emissions from NG combustion'!C32</f>
         <v>1.7432660455784115E-12</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>43</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4">
         <f>'emissions from NG combustion'!C33</f>
         <v>1.2203193549534457E-7</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>41</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
         <f>'emissions from NG combustion'!C35</f>
         <v>3.6609249418117787E-7</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="4">
         <f>'emissions from NG combustion'!C36</f>
         <v>1.7432660455784116E-8</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="F52" t="s">
         <v>41</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" t="s">
         <v>43</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4">
         <f>'emissions from NG combustion'!C37</f>
         <v>1.7432660455784116E-8</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4">
         <f>'emissions from NG combustion'!C38</f>
         <v>5.2299637519780225E-12</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" t="s">
         <v>41</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="4">
         <f>'emissions from NG combustion'!C39</f>
         <v>3.4866977063996105E-7</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>41</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" t="s">
         <v>43</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4">
         <f>'emissions from NG combustion'!C40</f>
         <v>3.1205224045970388E-6</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>41</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="4">
         <f>'emissions from NG combustion'!C41</f>
         <v>1.7432660455784116E-9</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" t="s">
         <v>43</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="4">
         <f>'emissions from NG combustion'!C42</f>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>41</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4">
         <f>'emissions from NG combustion'!C43</f>
         <v>2.0920517468883236E-7</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>41</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G59" t="s">
         <v>43</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4">
         <f>'emissions from NG combustion'!C44</f>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="4">
         <f>'emissions from NG combustion'!C45</f>
         <v>3.4866977063996103E-9</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" t="s">
         <v>43</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
         <f>'emissions from NG combustion'!C46</f>
         <v>9.5882944811668376E-8</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" t="s">
         <v>41</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" t="s">
         <v>43</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="4">
         <f>'emissions from NG combustion'!C47</f>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" t="s">
         <v>43</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2131,539 +2069,539 @@
   <sheetViews>
     <sheetView zoomScale="59" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>1.0526</v>
       </c>
       <c r="E3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="7">
         <v>1.0526000000000001E-9</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="7">
         <f>C5/$D$3</f>
         <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="7">
         <v>1.5788999999999999E-7</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="7">
         <f t="shared" ref="D6:D22" si="0">C6/$D$3</f>
         <v>1.4999999999999999E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="7">
         <v>4.2104999999999998E-7</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>4.0000950028500851E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="7">
         <v>1.0525999999999999E-11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>9.9999999999999994E-12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="7">
         <v>7.3684000000000003E-7</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>7.0001900057001714E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="7">
         <v>2.2104999999999998E-6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>2.1000380011400339E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="7">
         <v>1.0526E-7</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="7">
         <v>1.0526E-7</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>1.0000000000000001E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="7">
         <v>3.1579E-11</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>3.0000950028500856E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="7">
         <v>2.1053E-6</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>2.0000950028500857E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="7">
         <v>1.8842E-5</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>1.7900437013110393E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="7">
         <v>1.0525999999999999E-8</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="7">
         <f t="shared" si="0"/>
         <v>1E-8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="7">
         <v>2.1052999999999999E-7</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>2.0000950028500855E-7</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="7">
         <v>1.2632E-6</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="7">
         <f t="shared" si="0"/>
         <v>1.2000760022800684E-6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="7">
         <v>2.1052999999999999E-7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="7">
         <f t="shared" si="0"/>
         <v>2.0000950028500855E-7</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="7">
         <v>2.1053E-8</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="7">
         <f t="shared" si="0"/>
         <v>2.0000950028500854E-8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="7">
         <v>5.7894999999999998E-7</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="7">
         <f t="shared" si="0"/>
         <v>5.5001900057001709E-7</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="7">
         <v>2.1052999999999999E-7</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="7">
         <f t="shared" si="0"/>
         <v>2.0000950028500855E-7</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="12">
         <v>5.8946999999999999E-2</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <f>C23/$D$3</f>
         <v>5.6001330039901195E-2</v>
       </c>
       <c r="E23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="18">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="15">
         <f>[1]Inputs!D110</f>
         <v>1.8800085315000001</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="15">
         <f>C27/[1]Inputs!$D$24</f>
         <v>0.17432660455784116</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="str">
         <f>B5</f>
         <v>Acetaldehyde</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="7">
         <f>$D5*C$28</f>
         <v>1.7432660455784118E-10</v>
       </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="str">
         <f>B6</f>
         <v>Acetic acid</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="7">
         <f t="shared" ref="C30:C33" si="1">$D6*C$28</f>
         <v>2.6148990683676173E-8</v>
       </c>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="str">
         <f>B7</f>
         <v>Benzene</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="7">
         <f t="shared" si="1"/>
         <v>6.9732297975564331E-8</v>
       </c>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="str">
         <f>B8</f>
         <v>Benzo(a)pyrene</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="7">
         <f t="shared" si="1"/>
         <v>1.7432660455784115E-12</v>
       </c>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="str">
         <f>B9</f>
         <v>Butane</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="7">
         <f t="shared" si="1"/>
         <v>1.2203193549534457E-7</v>
       </c>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="str">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="12" t="str">
         <f>B23</f>
         <v>Carbon dioxide, fossil</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="16">
         <f>$D23*C$28</f>
         <v>9.7625217165790059E-3</v>
       </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" t="str">
         <f t="shared" ref="B35:B47" si="2">B10</f>
         <v>Carbon monoxide, fossil</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="7">
         <f t="shared" ref="C35:C47" si="3">$D10*C$28</f>
         <v>3.6609249418117787E-7</v>
       </c>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="str">
         <f t="shared" si="2"/>
         <v>Dinitrogen monoxide</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="7">
         <f t="shared" si="3"/>
         <v>1.7432660455784116E-8</v>
       </c>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="str">
         <f t="shared" si="2"/>
         <v>Formaldehyde</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="7">
         <f t="shared" si="3"/>
         <v>1.7432660455784116E-8</v>
       </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="str">
         <f t="shared" si="2"/>
         <v>Mercury</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="7">
         <f t="shared" si="3"/>
         <v>5.2299637519780225E-12</v>
       </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" t="str">
         <f t="shared" si="2"/>
         <v>Methane, fossil</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="7">
         <f t="shared" si="3"/>
         <v>3.4866977063996105E-7</v>
       </c>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" t="str">
         <f t="shared" si="2"/>
         <v>Nitrogen oxides</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="7">
         <f t="shared" si="3"/>
         <v>3.1205224045970388E-6</v>
       </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" t="str">
         <f t="shared" si="2"/>
         <v>PAH, polycyclic aromatic hydrocarbons</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="7">
         <f t="shared" si="3"/>
         <v>1.7432660455784116E-9</v>
       </c>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="str">
         <f t="shared" si="2"/>
         <v>Particulates, &lt; 2.5 um</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="7">
         <f t="shared" si="3"/>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" t="str">
         <f t="shared" si="2"/>
         <v>Pentane</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="7">
         <f t="shared" si="3"/>
         <v>2.0920517468883236E-7</v>
       </c>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="str">
         <f t="shared" si="2"/>
         <v>Propane</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="7">
         <f t="shared" si="3"/>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>Propionic acid</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="7">
         <f t="shared" si="3"/>
         <v>3.4866977063996103E-9</v>
       </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>Sulfur dioxide</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="7">
         <f t="shared" si="3"/>
         <v>9.5882944811668376E-8</v>
       </c>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="str">
         <f t="shared" si="2"/>
         <v>Toluene</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="7">
         <f t="shared" si="3"/>
         <v>3.4866977063996105E-8</v>
       </c>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="21"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
